--- a/case2_Glu-Fru/_FG_ISOTHERMS_ANALYSED.xlsx
+++ b/case2_Glu-Fru/_FG_ISOTHERMS_ANALYSED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO_Papers\MEng_Code\case2_Glu-Fru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8615791D-DC6D-4D70-8E76-7A990C430F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584596E5-9231-4B1B-92ED-93B743AC858D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{EA7960EC-E79E-451C-8537-779F67CA9E08}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EA7960EC-E79E-451C-8537-779F67CA9E08}"/>
   </bookViews>
   <sheets>
     <sheet name="GLUCOSE (2)" sheetId="5" r:id="rId1"/>
@@ -36,8 +36,48 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={15736140-9E9C-445F-BC03-F61B551C7F08}</author>
+  </authors>
+  <commentList>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{15736140-9E9C-445F-BC03-F61B551C7F08}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Just an estimate from UBK:
+https://www.diaion.com/en/products/ion_exchange_resins/strongly_acidic_cation/data_sheet_ubk/pdf/ubk530.pdf
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={47062DED-F4B9-4D63-B1E0-DBB4945A7021}</author>
+  </authors>
+  <commentList>
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{47062DED-F4B9-4D63-B1E0-DBB4945A7021}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Just an estimate from UBK:
+https://www.diaion.com/en/products/ion_exchange_resins/strongly_acidic_cation/data_sheet_ubk/pdf/ubk530.pdf
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>R1</t>
   </si>
@@ -86,16 +126,36 @@
   <si>
     <t>Ce/Qe</t>
   </si>
+  <si>
+    <t>For Model</t>
+  </si>
+  <si>
+    <t>Ce (g/mL)</t>
+  </si>
+  <si>
+    <t>Qe (g/g_resin)</t>
+  </si>
+  <si>
+    <t>Qe(g/mL_resin</t>
+  </si>
+  <si>
+    <t>Resin Density (g_resin/mL_resin)</t>
+  </si>
+  <si>
+    <t>Qe(g/mL_resin)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +175,12 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -329,7 +395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -483,6 +549,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2655,6 +2728,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Punabantu, N, Mr [28820169@sun.ac.za]" id="{02DB9639-B0EA-4BF2-BA53-BACC86B10F58}" userId="S::28820169@sun.ac.za::4361c9af-2042-4bd0-a173-bb9a66611d75" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2970,19 +3049,54 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B18" dT="2025-06-11T12:49:59.36" personId="{02DB9639-B0EA-4BF2-BA53-BACC86B10F58}" id="{15736140-9E9C-445F-BC03-F61B551C7F08}">
+    <text xml:space="preserve">Just an estimate from UBK:
+https://www.diaion.com/en/products/ion_exchange_resins/strongly_acidic_cation/data_sheet_ubk/pdf/ubk530.pdf
+</text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>3247326814</xltc2:checksum>
+        <xltc2:hyperlink startIndex="27" length="107" url="https://www.diaion.com/en/products/ion_exchange_resins/strongly_acidic_cation/data_sheet_ubk/pdf/ubk530.pdf"/>
+      </x:ext>
+    </extLst>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D19" dT="2025-06-11T12:49:59.36" personId="{02DB9639-B0EA-4BF2-BA53-BACC86B10F58}" id="{47062DED-F4B9-4D63-B1E0-DBB4945A7021}">
+    <text xml:space="preserve">Just an estimate from UBK:
+https://www.diaion.com/en/products/ion_exchange_resins/strongly_acidic_cation/data_sheet_ubk/pdf/ubk530.pdf
+</text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>3247326814</xltc2:checksum>
+        <xltc2:hyperlink startIndex="27" length="107" url="https://www.diaion.com/en/products/ion_exchange_resins/strongly_acidic_cation/data_sheet_ubk/pdf/ubk530.pdf"/>
+      </x:ext>
+    </extLst>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4902D9D6-E2C9-4146-893E-01F7E3E9B95B}">
-  <dimension ref="B1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4902D9D6-E2C9-4146-893E-01F7E3E9B95B}">
+  <dimension ref="B1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.109375" style="1"/>
-    <col min="6" max="6" width="12.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.109375" style="1"/>
     <col min="10" max="10" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -3152,7 +3266,7 @@
         <v>1.55</v>
       </c>
       <c r="G8" s="22">
-        <f t="shared" ref="G7:G12" si="4">B8-F8</f>
+        <f t="shared" ref="G8:G12" si="4">B8-F8</f>
         <v>1.57</v>
       </c>
       <c r="H8" s="23">
@@ -3258,7 +3372,7 @@
         <v>0.92</v>
       </c>
       <c r="H11" s="23">
-        <f t="shared" si="1"/>
+        <f>G11*$D$2/(1000*$D$3)</f>
         <v>3.0666666666666672E-3</v>
       </c>
       <c r="I11" s="31">
@@ -3304,24 +3418,155 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E15" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="65"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="63">
+        <f>F12/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="64">
+        <f>H12</f>
+        <v>2.0333333333333332E-3</v>
+      </c>
+      <c r="G17" s="67">
+        <f>F17*$B$19</f>
+        <v>2.4806666666666666E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="63">
+        <f>F11/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="64">
+        <f>H11</f>
+        <v>3.0666666666666672E-3</v>
+      </c>
+      <c r="G18" s="67">
+        <f t="shared" ref="G18:G23" si="5">F18*$B$19</f>
+        <v>3.7413333333333339E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="66">
+        <v>1.22</v>
+      </c>
+      <c r="E19" s="63">
+        <f>F10/1000</f>
+        <v>7.3333333333333334E-4</v>
+      </c>
+      <c r="F19" s="64">
+        <f>H10</f>
+        <v>3.1555555555555551E-3</v>
+      </c>
+      <c r="G19" s="67">
+        <f t="shared" si="5"/>
+        <v>3.8497777777777771E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="63">
+        <f>F9/1000</f>
+        <v>1.0366666666666666E-3</v>
+      </c>
+      <c r="F20" s="64">
+        <f>H9</f>
+        <v>4.8777777777777778E-3</v>
+      </c>
+      <c r="G20" s="67">
+        <f t="shared" si="5"/>
+        <v>5.9508888888888884E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="63">
+        <f>F8/1000</f>
+        <v>1.5499999999999999E-3</v>
+      </c>
+      <c r="F21" s="64">
+        <f>H8</f>
+        <v>5.2333333333333338E-3</v>
+      </c>
+      <c r="G21" s="67">
+        <f t="shared" si="5"/>
+        <v>6.384666666666667E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="63">
+        <f>F7/1000</f>
+        <v>2.1366666666666669E-3</v>
+      </c>
+      <c r="F22" s="64">
+        <f>H7</f>
+        <v>7.9444444444444432E-3</v>
+      </c>
+      <c r="G22" s="67">
+        <f t="shared" si="5"/>
+        <v>9.6922222222222201E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="63">
+        <f>F6/1000</f>
+        <v>3.0499999999999998E-3</v>
+      </c>
+      <c r="F23" s="64">
+        <f>H6</f>
+        <v>1.0966666666666666E-2</v>
+      </c>
+      <c r="G23" s="67">
+        <f t="shared" si="5"/>
+        <v>1.3379333333333333E-2</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E15:F15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0877AA7D-3E8E-462C-96DD-24C51B19A964}">
-  <dimension ref="B1:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0877AA7D-3E8E-462C-96DD-24C51B19A964}">
+  <dimension ref="B1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3632,9 +3877,134 @@
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I13" s="61"/>
     </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G16" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="65"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G18" s="63">
+        <f>F12/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="64">
+        <f>H12</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="I18" s="67">
+        <f>H18*$D$20</f>
+        <v>4.8799999999999999E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="63">
+        <f>F11/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="64">
+        <f>H11</f>
+        <v>6.8888888888888884E-4</v>
+      </c>
+      <c r="I19" s="67">
+        <f t="shared" ref="I19:I24" si="5">H19*$D$20</f>
+        <v>8.4044444444444433E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="66">
+        <v>1.22</v>
+      </c>
+      <c r="G20" s="63">
+        <f>F10/1000</f>
+        <v>3.9999999999999996E-4</v>
+      </c>
+      <c r="H20" s="64">
+        <f>H10</f>
+        <v>6.8888888888888884E-4</v>
+      </c>
+      <c r="I20" s="67">
+        <f t="shared" si="5"/>
+        <v>8.4044444444444433E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G21" s="63">
+        <f>F9/1000</f>
+        <v>1.1300000000000001E-3</v>
+      </c>
+      <c r="H21" s="64">
+        <f>H9</f>
+        <v>1.1055555555555556E-3</v>
+      </c>
+      <c r="I21" s="67">
+        <f t="shared" si="5"/>
+        <v>1.3487777777777777E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G22" s="63">
+        <f>F8/1000</f>
+        <v>1.7033333333333334E-3</v>
+      </c>
+      <c r="H22" s="64">
+        <f>H8</f>
+        <v>1.3092592592592591E-3</v>
+      </c>
+      <c r="I22" s="67">
+        <f t="shared" si="5"/>
+        <v>1.5972962962962961E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G23" s="63">
+        <f>F7/1000</f>
+        <v>2.4599999999999999E-3</v>
+      </c>
+      <c r="H23" s="64">
+        <f>H7</f>
+        <v>1.4777777777777779E-3</v>
+      </c>
+      <c r="I23" s="67">
+        <f t="shared" si="5"/>
+        <v>1.802888888888889E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="63">
+        <f>F6/1000</f>
+        <v>3.3733333333333337E-3</v>
+      </c>
+      <c r="H24" s="64">
+        <f>H6</f>
+        <v>2.1481481481481482E-3</v>
+      </c>
+      <c r="I24" s="67">
+        <f t="shared" si="5"/>
+        <v>2.6207407407407408E-3</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G16:H16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/case2_Glu-Fru/_FG_ISOTHERMS_ANALYSED.xlsx
+++ b/case2_Glu-Fru/_FG_ISOTHERMS_ANALYSED.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO_Papers\MEng_Code\case2_Glu-Fru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584596E5-9231-4B1B-92ED-93B743AC858D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87618753-7885-4940-9A4D-9BB7C0FE586D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EA7960EC-E79E-451C-8537-779F67CA9E08}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{EA7960EC-E79E-451C-8537-779F67CA9E08}"/>
   </bookViews>
   <sheets>
     <sheet name="GLUCOSE (2)" sheetId="5" r:id="rId1"/>
     <sheet name="FRUCTOSE (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="for_Code" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>R1</t>
   </si>
@@ -88,22 +89,13 @@
     <t>R3</t>
   </si>
   <si>
-    <t>Co</t>
-  </si>
-  <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>Ce</t>
   </si>
   <si>
     <t>V</t>
   </si>
   <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>dC</t>
   </si>
   <si>
     <t>Qe</t>
@@ -144,6 +136,36 @@
   <si>
     <t>Qe(g/mL_resin)</t>
   </si>
+  <si>
+    <t>Ce (g_solute/L_liquid)</t>
+  </si>
+  <si>
+    <t>Co (g_solute/L_liquid)</t>
+  </si>
+  <si>
+    <t>dC (g_solute/L_liquid)</t>
+  </si>
+  <si>
+    <t>dm (g_solute)</t>
+  </si>
+  <si>
+    <t>dC (g_solute/mL_liquid)</t>
+  </si>
+  <si>
+    <t>Qe (g_solute/g_resin)</t>
+  </si>
+  <si>
+    <t>Glucose</t>
+  </si>
+  <si>
+    <t>Fructose</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Ce (g_solute/mL_liquid)</t>
+  </si>
 </sst>
 </file>
 
@@ -152,10 +174,10 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,12 +197,6 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -233,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -390,12 +406,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -443,9 +474,6 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -455,9 +483,6 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,9 +490,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,7 +549,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -544,18 +565,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -588,7 +621,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -597,16 +630,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Glucose</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -619,165 +655,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.11449590610543633"/>
-                  <c:y val="0.37648108604040181"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:prstDash val="lgDashDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.22828718285214347"/>
-                  <c:y val="4.1745406824146979E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln w="19050">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'GLUCOSE (2)'!$F$6:$F$12</c:f>
+              <c:f>for_Code!$D$13:$D$17</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.05</c:v>
+                  <c:v>7.3333333333333334E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1366666666666667</c:v>
+                  <c:v>1.0366666666666666E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.55</c:v>
+                  <c:v>1.5499999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0366666666666666</c:v>
+                  <c:v>2.1366666666666669E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.73333333333333339</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.0499999999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'GLUCOSE (2)'!$I$6:$I$12</c:f>
+              <c:f>for_Code!$E$13:$E$17</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>0.00000000</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10.966666666666667</c:v>
+                  <c:v>3.8497777777777771E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9444444444444429</c:v>
+                  <c:v>5.9508888888888901E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2333333333333334</c:v>
+                  <c:v>6.3846666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8777777777777773</c:v>
+                  <c:v>9.6922222222222201E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.155555555555555</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0666666666666673</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0333333333333332</c:v>
+                  <c:v>1.3379333333333333E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -785,7 +706,90 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-05CB-4FA8-B8C8-14963F1F3D55}"/>
+              <c16:uniqueId val="{00000000-776B-434C-8C61-0A8A8655440F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Fructose</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>for_Code!$G$13:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.9999999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1300000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7033333333333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4599999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3733333333333337E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>for_Code!$H$13:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0426666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0926666666666664E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5837777777777761E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0817333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5724444444444444E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-776B-434C-8C61-0A8A8655440F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -797,80 +801,42 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1058381264"/>
-        <c:axId val="1058378744"/>
+        <c:axId val="76261583"/>
+        <c:axId val="76263503"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1058381264"/>
+        <c:axId val="76261583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Ce (g/l)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
+        <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="in"/>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="22225" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="002060"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -881,104 +847,58 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1058378744"/>
+        <c:crossAx val="76263503"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1058378744"/>
+        <c:axId val="76263503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Qe (g/g) X 1000</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="3.3333333333333333E-2"/>
-              <c:y val="0.32656641878098569"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
+        <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="in"/>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="22225" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -989,22 +909,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1058381264"/>
+        <c:crossAx val="76261583"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1016,8 +936,46 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1040,484 +998,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200" b="1">
-          <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-          <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>FRUCTOSE</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:prstDash val="lgDashDotDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.10684461283819649"/>
-                  <c:y val="-4.1653717326979783E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln w="19050">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:prstDash val="lgDashDotDot"/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'FRUCTOSE (2)'!$F$6:$F$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.3733333333333335</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.46</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7033333333333334</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.39999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'FRUCTOSE (2)'!$I$6:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2.1481481481481484</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4777777777777779</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3092592592592591</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1055555555555556</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.68888888888888888</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.68888888888888888</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F965-410D-8EA3-7140B32F025F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1051271424"/>
-        <c:axId val="1051271784"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1051271424"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Ce (g/l)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="in"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="22225" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1051271784"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1051271784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2.5"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Qe (g/g) X 1000</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="in"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1051271424"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1200" b="1">
-          <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-          <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-        </a:defRPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1531,46 +1012,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2126,549 +1567,254 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADBBD611-607F-B8D3-9859-670FE44C48FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4465320" y="4556760"/>
+          <a:ext cx="2438400" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="1400"/>
+            <a:t>top-down =</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="1400" baseline="0"/>
+            <a:t> ascending order</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-ZA" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19FF8AF0-18FA-357F-3DDD-94C2372B6A45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1653540" y="838200"/>
+          <a:ext cx="1554480" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="1800"/>
+            <a:t>Glucose</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>845820</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>944880</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CAB92A2-984D-4CE1-80A4-74BA5D86998A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4442460" y="861060"/>
+          <a:ext cx="1988820" cy="434340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="1800"/>
+            <a:t>Fructose</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E7EE31-1247-4205-B539-558AEA0E8BE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{445567E9-95C8-C3D8-1345-D4FCF4633B59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2682,47 +1828,232 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>442911</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>891540</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F724F09A-9FA3-4378-89FF-F9A4324827DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C9E63C-0D66-5F2A-2B4C-4A35838C1D6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7505700" y="982980"/>
+          <a:ext cx="1988820" cy="434340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="1800"/>
+            <a:t>Model</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="1800" baseline="0"/>
+            <a:t> Coeffs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-ZA" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C4306C8-F2CC-6259-FDD7-2A96CDA5A760}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1661160" y="3451860"/>
+          <a:ext cx="1988820" cy="434340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="1800"/>
+            <a:t>Model</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="1800" baseline="0"/>
+            <a:t> Glucose</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-ZA" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{783E92FE-7BE6-8FFE-A7ED-1C2AA8A05195}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="3390900"/>
+          <a:ext cx="1988820" cy="434340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="1800"/>
+            <a:t>Model</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="1800" baseline="0"/>
+            <a:t> Fructose</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-ZA" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3083,10 +2414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4902D9D6-E2C9-4146-893E-01F7E3E9B95B}">
-  <dimension ref="B1:J23"/>
+  <dimension ref="B1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3095,65 +2426,65 @@
     <col min="2" max="2" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.109375" style="1"/>
     <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="1"/>
-    <col min="10" max="10" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="6" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="35"/>
+    <row r="1" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="32"/>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3">
         <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-    </row>
-    <row r="3" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="38"/>
+        <v>8</v>
+      </c>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="35"/>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="6">
         <v>6</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="39"/>
-    </row>
-    <row r="4" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="N3" s="36"/>
+    </row>
+    <row r="4" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="35"/>
       <c r="C4" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="8">
         <f>2.22*20/7</f>
         <v>6.3428571428571434</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="39"/>
-    </row>
-    <row r="5" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="36"/>
+    </row>
+    <row r="5" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>0</v>
@@ -3165,23 +2496,35 @@
         <v>2</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="N5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="62" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="28">
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="25">
         <v>6.34</v>
       </c>
       <c r="C6" s="15">
@@ -3193,7 +2536,7 @@
       <c r="E6" s="17">
         <v>2.89</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="30">
         <f>SUM(D6:E6)/2</f>
         <v>3.05</v>
       </c>
@@ -3201,341 +2544,453 @@
         <f>B6-F6</f>
         <v>3.29</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="58">
+        <f>F6/1000</f>
+        <v>3.0499999999999998E-3</v>
+      </c>
+      <c r="I6" s="58">
+        <f>G6/1000</f>
+        <v>3.29E-3</v>
+      </c>
+      <c r="J6" s="59">
+        <f>I6*$D$2</f>
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="K6" s="58">
+        <f>J6/$D$3</f>
+        <v>1.0966666666666666E-2</v>
+      </c>
+      <c r="L6" s="65">
         <f>G6*$D$2/(1000*$D$3)</f>
         <v>1.0966666666666666E-2</v>
       </c>
-      <c r="I6" s="30">
-        <f>H6*1000</f>
+      <c r="M6" s="27">
+        <f>L6*1000</f>
         <v>10.966666666666667</v>
       </c>
-      <c r="J6" s="40">
-        <f>F6/H6</f>
+      <c r="N6" s="37">
+        <f>F6/L6</f>
         <v>278.11550151975683</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="28">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="25">
         <v>4.5199999999999996</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>2.14</v>
       </c>
       <c r="D7" s="14">
         <v>2.17</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>2.1</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="30">
         <f t="shared" ref="F7:F12" si="0">SUM(C7:E7)/3</f>
         <v>2.1366666666666667</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <f>B7-F7</f>
         <v>2.3833333333333329</v>
       </c>
-      <c r="H7" s="23">
-        <f t="shared" ref="H7:H12" si="1">G7*$D$2/(1000*$D$3)</f>
+      <c r="H7" s="58">
+        <f t="shared" ref="H7:H12" si="1">F7/1000</f>
+        <v>2.1366666666666669E-3</v>
+      </c>
+      <c r="I7" s="58">
+        <f>G7/1000</f>
+        <v>2.3833333333333328E-3</v>
+      </c>
+      <c r="J7" s="59">
+        <f>I7*$D$2</f>
+        <v>4.7666666666666656E-2</v>
+      </c>
+      <c r="K7" s="58">
+        <f t="shared" ref="K7:K12" si="2">J7/$D$3</f>
         <v>7.9444444444444432E-3</v>
       </c>
-      <c r="I7" s="31">
-        <f t="shared" ref="I7:I12" si="2">H7*1000</f>
+      <c r="L7" s="66">
+        <f>G7*$D$2/(1000*$D$3)</f>
+        <v>7.9444444444444432E-3</v>
+      </c>
+      <c r="M7" s="28">
+        <f>L7*1000</f>
         <v>7.9444444444444429</v>
       </c>
-      <c r="J7" s="40">
-        <f t="shared" ref="J7:J12" si="3">F7/H7</f>
+      <c r="N7" s="37">
+        <f>F7/L7</f>
         <v>268.95104895104902</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="28">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="25">
         <v>3.12</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>1.55</v>
       </c>
       <c r="D8" s="14">
         <v>1.55</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>1.55</v>
       </c>
-      <c r="F8" s="33">
-        <f t="shared" si="0"/>
+      <c r="F8" s="30">
+        <f>SUM(C8:E8)/3</f>
         <v>1.55</v>
       </c>
-      <c r="G8" s="22">
-        <f t="shared" ref="G8:G12" si="4">B8-F8</f>
+      <c r="G8" s="21">
+        <f t="shared" ref="G8:G12" si="3">B8-F8</f>
         <v>1.57</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="58">
         <f t="shared" si="1"/>
+        <v>1.5499999999999999E-3</v>
+      </c>
+      <c r="I8" s="58">
+        <f>G8/1000</f>
+        <v>1.57E-3</v>
+      </c>
+      <c r="J8" s="59">
+        <f>I8*$D$2</f>
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="K8" s="58">
+        <f t="shared" si="2"/>
+        <v>5.2333333333333329E-3</v>
+      </c>
+      <c r="L8" s="66">
+        <f>G8*$D$2/(1000*$D$3)</f>
         <v>5.2333333333333338E-3</v>
       </c>
-      <c r="I8" s="31">
-        <f t="shared" si="2"/>
+      <c r="M8" s="28">
+        <f t="shared" ref="M7:M12" si="4">L8*1000</f>
         <v>5.2333333333333334</v>
       </c>
-      <c r="J8" s="40">
-        <f t="shared" si="3"/>
+      <c r="N8" s="37">
+        <f>F8/L8</f>
         <v>296.17834394904457</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="28">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="25">
         <v>2.5</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>1.06</v>
       </c>
       <c r="D9" s="14">
         <v>1.03</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>1.02</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="30">
         <f t="shared" si="0"/>
         <v>1.0366666666666666</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="21">
+        <f>B9-F9</f>
+        <v>1.4633333333333334</v>
+      </c>
+      <c r="H9" s="58">
+        <f t="shared" si="1"/>
+        <v>1.0366666666666666E-3</v>
+      </c>
+      <c r="I9" s="58">
+        <f t="shared" ref="I7:I12" si="5">G9/1000</f>
+        <v>1.4633333333333334E-3</v>
+      </c>
+      <c r="J9" s="59">
+        <f>I9*$D$2</f>
+        <v>2.926666666666667E-2</v>
+      </c>
+      <c r="K9" s="58">
+        <f t="shared" si="2"/>
+        <v>4.8777777777777786E-3</v>
+      </c>
+      <c r="L9" s="66">
+        <f>G9*$D$2/(1000*$D$3)</f>
+        <v>4.8777777777777778E-3</v>
+      </c>
+      <c r="M9" s="28">
         <f t="shared" si="4"/>
-        <v>1.4633333333333334</v>
-      </c>
-      <c r="H9" s="23">
-        <f t="shared" si="1"/>
-        <v>4.8777777777777778E-3</v>
-      </c>
-      <c r="I9" s="31">
-        <f t="shared" si="2"/>
         <v>4.8777777777777773</v>
       </c>
-      <c r="J9" s="40">
-        <f t="shared" si="3"/>
+      <c r="N9" s="37">
+        <f>F9/L9</f>
         <v>212.52847380410023</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="28">
+    <row r="10" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="25">
         <v>1.68</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="22">
         <v>0.74</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="23">
         <v>0.74</v>
       </c>
       <c r="E10" s="8">
         <v>0.72</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="30">
         <f t="shared" si="0"/>
         <v>0.73333333333333339</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="21">
+        <f t="shared" si="3"/>
+        <v>0.94666666666666655</v>
+      </c>
+      <c r="H10" s="58">
+        <f t="shared" si="1"/>
+        <v>7.3333333333333334E-4</v>
+      </c>
+      <c r="I10" s="58">
+        <f>G10/1000</f>
+        <v>9.4666666666666651E-4</v>
+      </c>
+      <c r="J10" s="59">
+        <f t="shared" ref="J7:J12" si="6">I10*$D$2</f>
+        <v>1.893333333333333E-2</v>
+      </c>
+      <c r="K10" s="58">
+        <f t="shared" si="2"/>
+        <v>3.1555555555555551E-3</v>
+      </c>
+      <c r="L10" s="66">
+        <f>G10*$D$2/(1000*$D$3)</f>
+        <v>3.1555555555555551E-3</v>
+      </c>
+      <c r="M10" s="28">
         <f t="shared" si="4"/>
-        <v>0.94666666666666655</v>
-      </c>
-      <c r="H10" s="23">
+        <v>3.155555555555555</v>
+      </c>
+      <c r="N10" s="37">
+        <f>F10/L10</f>
+        <v>232.39436619718316</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="25">
+        <v>0.92</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="30">
+        <f>SUM(C11:E11)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="21">
+        <f t="shared" si="3"/>
+        <v>0.92</v>
+      </c>
+      <c r="H11" s="58">
         <f t="shared" si="1"/>
-        <v>3.1555555555555551E-3</v>
-      </c>
-      <c r="I10" s="31">
+        <v>0</v>
+      </c>
+      <c r="I11" s="58">
+        <f t="shared" si="5"/>
+        <v>9.2000000000000003E-4</v>
+      </c>
+      <c r="J11" s="59">
+        <f>I11*$D$2</f>
+        <v>1.84E-2</v>
+      </c>
+      <c r="K11" s="58">
         <f t="shared" si="2"/>
-        <v>3.155555555555555</v>
-      </c>
-      <c r="J10" s="40">
-        <f t="shared" si="3"/>
-        <v>232.39436619718316</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="28">
-        <v>0.92</v>
-      </c>
-      <c r="C11" s="15">
-        <v>0</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0</v>
-      </c>
-      <c r="E11" s="17">
-        <v>0</v>
-      </c>
-      <c r="F11" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="22">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
-      </c>
-      <c r="H11" s="23">
+        <v>3.0666666666666668E-3</v>
+      </c>
+      <c r="L11" s="66">
         <f>G11*$D$2/(1000*$D$3)</f>
         <v>3.0666666666666672E-3</v>
       </c>
-      <c r="I11" s="31">
+      <c r="M11" s="28">
+        <f t="shared" si="4"/>
+        <v>3.0666666666666673</v>
+      </c>
+      <c r="N11" s="37">
+        <f>F11/L11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="26">
+        <v>0.61</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="24">
+        <f>B12-F12</f>
+        <v>0.61</v>
+      </c>
+      <c r="H12" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="58">
+        <f t="shared" si="5"/>
+        <v>6.0999999999999997E-4</v>
+      </c>
+      <c r="J12" s="59">
+        <f>I12*$D$2</f>
+        <v>1.2199999999999999E-2</v>
+      </c>
+      <c r="K12" s="58">
         <f t="shared" si="2"/>
-        <v>3.0666666666666673</v>
-      </c>
-      <c r="J11" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="29">
-        <v>0.61</v>
-      </c>
-      <c r="C12" s="24">
-        <v>0</v>
-      </c>
-      <c r="D12" s="25">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="26">
+        <v>2.0333333333333332E-3</v>
+      </c>
+      <c r="L12" s="67">
+        <f>G12*$D$2/(1000*$D$3)</f>
+        <v>2.0333333333333332E-3</v>
+      </c>
+      <c r="M12" s="29">
         <f t="shared" si="4"/>
-        <v>0.61</v>
-      </c>
-      <c r="H12" s="27">
-        <f t="shared" si="1"/>
+        <v>2.0333333333333332</v>
+      </c>
+      <c r="N12" s="38">
+        <f>F12/L12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E15" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="62"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="58">
+        <f>H12</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="59">
+        <f>K12</f>
         <v>2.0333333333333332E-3</v>
       </c>
-      <c r="I12" s="32">
-        <f t="shared" si="2"/>
-        <v>2.0333333333333332</v>
-      </c>
-      <c r="J12" s="41">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E15" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="65"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="66" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="63">
-        <f>F12/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="64">
-        <f>H12</f>
-        <v>2.0333333333333332E-3</v>
-      </c>
-      <c r="G17" s="67">
+      <c r="G17" s="61">
         <f>F17*$B$19</f>
         <v>2.4806666666666666E-3</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="63">
-        <f>F11/1000</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="64">
+      <c r="B18" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="58">
         <f>H11</f>
-        <v>3.0666666666666672E-3</v>
-      </c>
-      <c r="G18" s="67">
-        <f t="shared" ref="G18:G23" si="5">F18*$B$19</f>
-        <v>3.7413333333333339E-3</v>
+        <v>0</v>
+      </c>
+      <c r="F18" s="59">
+        <f>K11</f>
+        <v>3.0666666666666668E-3</v>
+      </c>
+      <c r="G18" s="61">
+        <f t="shared" ref="G18:G23" si="7">F18*$B$19</f>
+        <v>3.7413333333333335E-3</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="66">
+      <c r="B19" s="60">
         <v>1.22</v>
       </c>
-      <c r="E19" s="63">
-        <f>F10/1000</f>
+      <c r="E19" s="58">
+        <f>H10</f>
         <v>7.3333333333333334E-4</v>
       </c>
-      <c r="F19" s="64">
-        <f>H10</f>
+      <c r="F19" s="59">
+        <f>K10</f>
         <v>3.1555555555555551E-3</v>
       </c>
-      <c r="G19" s="67">
-        <f t="shared" si="5"/>
+      <c r="G19" s="61">
+        <f t="shared" si="7"/>
         <v>3.8497777777777771E-3</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="63">
-        <f>F9/1000</f>
+      <c r="E20" s="58">
+        <f>H9</f>
         <v>1.0366666666666666E-3</v>
       </c>
-      <c r="F20" s="64">
-        <f>H9</f>
-        <v>4.8777777777777778E-3</v>
-      </c>
-      <c r="G20" s="67">
-        <f t="shared" si="5"/>
-        <v>5.9508888888888884E-3</v>
+      <c r="F20" s="59">
+        <f>K9</f>
+        <v>4.8777777777777786E-3</v>
+      </c>
+      <c r="G20" s="61">
+        <f t="shared" si="7"/>
+        <v>5.9508888888888901E-3</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="63">
-        <f>F8/1000</f>
+      <c r="E21" s="58">
+        <f>H8</f>
         <v>1.5499999999999999E-3</v>
       </c>
-      <c r="F21" s="64">
-        <f>H8</f>
-        <v>5.2333333333333338E-3</v>
-      </c>
-      <c r="G21" s="67">
-        <f t="shared" si="5"/>
-        <v>6.384666666666667E-3</v>
+      <c r="F21" s="59">
+        <f>K8</f>
+        <v>5.2333333333333329E-3</v>
+      </c>
+      <c r="G21" s="61">
+        <f t="shared" si="7"/>
+        <v>6.3846666666666661E-3</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E22" s="63">
-        <f>F7/1000</f>
+      <c r="E22" s="58">
+        <f>H7</f>
         <v>2.1366666666666669E-3</v>
       </c>
-      <c r="F22" s="64">
-        <f>H7</f>
+      <c r="F22" s="59">
+        <f>K7</f>
         <v>7.9444444444444432E-3</v>
       </c>
-      <c r="G22" s="67">
-        <f t="shared" si="5"/>
+      <c r="G22" s="61">
+        <f t="shared" si="7"/>
         <v>9.6922222222222201E-3</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="63">
-        <f>F6/1000</f>
+      <c r="E23" s="58">
+        <f>H6</f>
         <v>3.0499999999999998E-3</v>
       </c>
-      <c r="F23" s="64">
-        <f>H6</f>
+      <c r="F23" s="59">
+        <f>K6</f>
         <v>1.0966666666666666E-2</v>
       </c>
-      <c r="G23" s="67">
-        <f t="shared" si="5"/>
+      <c r="G23" s="61">
+        <f t="shared" si="7"/>
         <v>1.3379333333333333E-2</v>
       </c>
     </row>
@@ -3552,66 +3007,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0877AA7D-3E8E-462C-96DD-24C51B19A964}">
-  <dimension ref="B1:J24"/>
+  <dimension ref="B1:O24"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
     <col min="4" max="4" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="5" width="5.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="6">
         <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="42" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="39" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="4">
         <v>6</v>
       </c>
-      <c r="E3" s="43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="44" t="s">
-        <v>4</v>
+      <c r="E3" s="40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="41" t="s">
+        <v>3</v>
       </c>
       <c r="D4" s="3">
         <f>2.7*4</f>
         <v>10.8</v>
       </c>
-      <c r="F4" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="47" t="s">
+      <c r="F4" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -3621,381 +3079,505 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="O5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="45" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="48">
+    </row>
+    <row r="6" spans="2:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="45">
         <v>7.24</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="46">
         <v>3.78</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="45">
         <v>3.12</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="47">
         <v>3.22</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="48">
         <f>SUM(C6:E6)/3</f>
         <v>3.3733333333333335</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="49">
         <f t="shared" ref="G6:G12" si="0">B6-F6</f>
         <v>3.8666666666666667</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="1">
+        <f>F6/1000</f>
+        <v>3.3733333333333337E-3</v>
+      </c>
+      <c r="I6" s="58">
+        <f>G6/1000</f>
+        <v>3.8666666666666667E-3</v>
+      </c>
+      <c r="J6" s="58">
+        <f>I6*$D$2</f>
+        <v>7.7333333333333337E-2</v>
+      </c>
+      <c r="K6" s="58">
+        <f>J6/$D$3</f>
+        <v>1.2888888888888889E-2</v>
+      </c>
+      <c r="M6" s="68">
         <f>G6*$D$3/(1000*$D$4)</f>
         <v>2.1481481481481482E-3</v>
       </c>
-      <c r="I6" s="18">
-        <f>H6*1000</f>
+      <c r="N6" s="18">
+        <f>M6*1000</f>
         <v>2.1481481481481484</v>
       </c>
-      <c r="J6" s="51">
-        <f>F6/H6</f>
+      <c r="O6" s="48">
+        <f>F6/M6</f>
         <v>1570.344827586207</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="48">
+    <row r="7" spans="2:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="45">
         <v>5.12</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="46">
         <v>2.4700000000000002</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="45">
         <v>2.4500000000000002</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="47">
         <v>2.46</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="48">
         <f t="shared" ref="F7:F12" si="1">SUM(C7:E7)/3</f>
         <v>2.46</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="49">
         <f t="shared" si="0"/>
         <v>2.66</v>
       </c>
-      <c r="H7" s="53">
-        <f t="shared" ref="H7:H12" si="2">G7*$D$3/(1000*$D$4)</f>
+      <c r="H7" s="1">
+        <f t="shared" ref="H7:H12" si="2">F7/1000</f>
+        <v>2.4599999999999999E-3</v>
+      </c>
+      <c r="I7" s="58">
+        <f>G7/1000</f>
+        <v>2.66E-3</v>
+      </c>
+      <c r="J7" s="58">
+        <f t="shared" ref="J7:J12" si="3">I7*$D$2</f>
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="K7" s="58">
+        <f t="shared" ref="K7:K12" si="4">J7/$D$3</f>
+        <v>8.8666666666666668E-3</v>
+      </c>
+      <c r="M7" s="68">
+        <f>G7*$D$3/(1000*$D$4)</f>
         <v>1.4777777777777779E-3</v>
       </c>
-      <c r="I7" s="22">
-        <f t="shared" ref="I7:I12" si="3">H7*1000</f>
+      <c r="N7" s="21">
+        <f t="shared" ref="N7:N12" si="5">M7*1000</f>
         <v>1.4777777777777779</v>
       </c>
-      <c r="J7" s="48">
-        <f t="shared" ref="J7:J12" si="4">F7/H7</f>
+      <c r="O7" s="45">
+        <f>F7/M7</f>
         <v>1664.661654135338</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="48">
+    <row r="8" spans="2:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="45">
         <v>4.0599999999999996</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="46">
         <v>1.71</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="45">
         <v>1.7</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="47">
         <v>1.7</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="48">
         <f t="shared" si="1"/>
         <v>1.7033333333333334</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="49">
         <f t="shared" si="0"/>
         <v>2.3566666666666665</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="1">
         <f t="shared" si="2"/>
+        <v>1.7033333333333334E-3</v>
+      </c>
+      <c r="I8" s="58">
+        <f>G8/1000</f>
+        <v>2.3566666666666666E-3</v>
+      </c>
+      <c r="J8" s="58">
+        <f t="shared" si="3"/>
+        <v>4.7133333333333333E-2</v>
+      </c>
+      <c r="K8" s="58">
+        <f t="shared" si="4"/>
+        <v>7.8555555555555549E-3</v>
+      </c>
+      <c r="M8" s="68">
+        <f>G8*$D$3/(1000*$D$4)</f>
         <v>1.3092592592592591E-3</v>
       </c>
-      <c r="I8" s="22">
-        <f t="shared" si="3"/>
+      <c r="N8" s="21">
+        <f t="shared" si="5"/>
         <v>1.3092592592592591</v>
       </c>
-      <c r="J8" s="48">
-        <f t="shared" si="4"/>
+      <c r="O8" s="45">
+        <f>F8/M8</f>
         <v>1300.9900990099011</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="48">
+    <row r="9" spans="2:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="45">
         <v>3.12</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="50">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="51">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="52">
         <v>1.19</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="48">
         <f t="shared" si="1"/>
         <v>1.1300000000000001</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="49">
         <f t="shared" si="0"/>
         <v>1.99</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="1">
         <f t="shared" si="2"/>
+        <v>1.1300000000000001E-3</v>
+      </c>
+      <c r="I9" s="58">
+        <f>G9/1000</f>
+        <v>1.99E-3</v>
+      </c>
+      <c r="J9" s="58">
+        <f t="shared" si="3"/>
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="K9" s="58">
+        <f t="shared" si="4"/>
+        <v>6.633333333333334E-3</v>
+      </c>
+      <c r="M9" s="68">
+        <f>G9*$D$3/(1000*$D$4)</f>
         <v>1.1055555555555556E-3</v>
       </c>
-      <c r="I9" s="22">
-        <f t="shared" si="3"/>
+      <c r="N9" s="21">
+        <f t="shared" si="5"/>
         <v>1.1055555555555556</v>
       </c>
-      <c r="J9" s="48">
-        <f t="shared" si="4"/>
+      <c r="O9" s="45">
+        <f>F9/M9</f>
         <v>1022.1105527638192</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="48">
+    <row r="10" spans="2:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="45">
         <v>1.64</v>
       </c>
-      <c r="C10" s="49">
-        <v>0</v>
-      </c>
-      <c r="D10" s="48">
-        <v>0</v>
-      </c>
-      <c r="E10" s="50">
+      <c r="C10" s="46">
+        <v>0</v>
+      </c>
+      <c r="D10" s="45">
+        <v>0</v>
+      </c>
+      <c r="E10" s="47">
         <v>1.2</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="48">
         <f t="shared" si="1"/>
         <v>0.39999999999999997</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="49">
         <f t="shared" si="0"/>
         <v>1.24</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="1">
         <f t="shared" si="2"/>
+        <v>3.9999999999999996E-4</v>
+      </c>
+      <c r="I10" s="58">
+        <f>G10/1000</f>
+        <v>1.24E-3</v>
+      </c>
+      <c r="J10" s="58">
+        <f t="shared" si="3"/>
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="K10" s="58">
+        <f t="shared" si="4"/>
+        <v>4.1333333333333335E-3</v>
+      </c>
+      <c r="M10" s="68">
+        <f>G10*$D$3/(1000*$D$4)</f>
         <v>6.8888888888888884E-4</v>
       </c>
-      <c r="I10" s="22">
-        <f t="shared" si="3"/>
+      <c r="N10" s="21">
+        <f t="shared" si="5"/>
         <v>0.68888888888888888</v>
       </c>
-      <c r="J10" s="48">
-        <f t="shared" si="4"/>
+      <c r="O10" s="45">
+        <f>F10/M10</f>
         <v>580.64516129032256</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="48">
+    <row r="11" spans="2:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="45">
         <v>1.24</v>
       </c>
-      <c r="C11" s="57">
-        <v>0</v>
-      </c>
-      <c r="D11" s="51">
-        <v>0</v>
-      </c>
-      <c r="E11" s="58">
-        <v>0</v>
-      </c>
-      <c r="F11" s="51">
+      <c r="C11" s="53">
+        <v>0</v>
+      </c>
+      <c r="D11" s="48">
+        <v>0</v>
+      </c>
+      <c r="E11" s="54">
+        <v>0</v>
+      </c>
+      <c r="F11" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="49">
         <f t="shared" si="0"/>
         <v>1.24</v>
       </c>
-      <c r="H11" s="53">
+      <c r="H11" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="58">
+        <f>G11/1000</f>
+        <v>1.24E-3</v>
+      </c>
+      <c r="J11" s="58">
+        <f t="shared" si="3"/>
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="K11" s="58">
+        <f t="shared" si="4"/>
+        <v>4.1333333333333335E-3</v>
+      </c>
+      <c r="M11" s="68">
+        <f>G11*$D$3/(1000*$D$4)</f>
         <v>6.8888888888888884E-4</v>
       </c>
-      <c r="I11" s="22">
-        <f t="shared" si="3"/>
+      <c r="N11" s="21">
+        <f t="shared" si="5"/>
         <v>0.68888888888888888</v>
       </c>
-      <c r="J11" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="55">
+      <c r="O11" s="45">
+        <f>F11/M11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="51">
         <v>0.72</v>
       </c>
-      <c r="C12" s="54">
-        <v>0</v>
-      </c>
-      <c r="D12" s="55">
-        <v>0</v>
-      </c>
-      <c r="E12" s="56">
-        <v>0</v>
-      </c>
-      <c r="F12" s="46">
+      <c r="C12" s="50">
+        <v>0</v>
+      </c>
+      <c r="D12" s="51">
+        <v>0</v>
+      </c>
+      <c r="E12" s="52">
+        <v>0</v>
+      </c>
+      <c r="F12" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G12" s="59">
+      <c r="G12" s="55">
         <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="58">
+        <f>G12/1000</f>
+        <v>7.1999999999999994E-4</v>
+      </c>
+      <c r="J12" s="58">
+        <f t="shared" si="3"/>
+        <v>1.44E-2</v>
+      </c>
+      <c r="K12" s="58">
+        <f t="shared" si="4"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="M12" s="69">
+        <f>G12*$D$3/(1000*$D$4)</f>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="I12" s="26">
-        <f t="shared" si="3"/>
+      <c r="N12" s="24">
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="J12" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I13" s="61"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G16" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="65"/>
+      <c r="O12" s="51">
+        <f>F12/M12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I13" s="56"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G16" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="62"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G18" s="58">
+        <f>H12</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="59">
+        <f>K12</f>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="I18" s="61">
+        <f>H18*$D$20</f>
+        <v>2.9279999999999996E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="66" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G18" s="63">
-        <f>F12/1000</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="64">
-        <f>H12</f>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="I18" s="67">
-        <f>H18*$D$20</f>
-        <v>4.8799999999999999E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D19" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="63">
-        <f>F11/1000</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="64">
+      <c r="G19" s="58">
         <f>H11</f>
-        <v>6.8888888888888884E-4</v>
-      </c>
-      <c r="I19" s="67">
-        <f t="shared" ref="I19:I24" si="5">H19*$D$20</f>
-        <v>8.4044444444444433E-4</v>
+        <v>0</v>
+      </c>
+      <c r="H19" s="59">
+        <f>K11</f>
+        <v>4.1333333333333335E-3</v>
+      </c>
+      <c r="I19" s="61">
+        <f t="shared" ref="I19:I24" si="6">H19*$D$20</f>
+        <v>5.0426666666666667E-3</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D20" s="66">
+      <c r="D20" s="60">
         <v>1.22</v>
       </c>
-      <c r="G20" s="63">
-        <f>F10/1000</f>
+      <c r="G20" s="58">
+        <f>H10</f>
         <v>3.9999999999999996E-4</v>
       </c>
-      <c r="H20" s="64">
-        <f>H10</f>
-        <v>6.8888888888888884E-4</v>
-      </c>
-      <c r="I20" s="67">
-        <f t="shared" si="5"/>
-        <v>8.4044444444444433E-4</v>
+      <c r="H20" s="59">
+        <f>K10</f>
+        <v>4.1333333333333335E-3</v>
+      </c>
+      <c r="I20" s="61">
+        <f t="shared" si="6"/>
+        <v>5.0426666666666667E-3</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G21" s="63">
-        <f>F9/1000</f>
+      <c r="G21" s="58">
+        <f>H9</f>
         <v>1.1300000000000001E-3</v>
       </c>
-      <c r="H21" s="64">
-        <f>H9</f>
-        <v>1.1055555555555556E-3</v>
-      </c>
-      <c r="I21" s="67">
-        <f t="shared" si="5"/>
-        <v>1.3487777777777777E-3</v>
+      <c r="H21" s="59">
+        <f>K9</f>
+        <v>6.633333333333334E-3</v>
+      </c>
+      <c r="I21" s="61">
+        <f t="shared" si="6"/>
+        <v>8.0926666666666664E-3</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G22" s="63">
-        <f>F8/1000</f>
+      <c r="G22" s="58">
+        <f>H8</f>
         <v>1.7033333333333334E-3</v>
       </c>
-      <c r="H22" s="64">
-        <f>H8</f>
-        <v>1.3092592592592591E-3</v>
-      </c>
-      <c r="I22" s="67">
-        <f t="shared" si="5"/>
-        <v>1.5972962962962961E-3</v>
+      <c r="H22" s="59">
+        <f>K8</f>
+        <v>7.8555555555555549E-3</v>
+      </c>
+      <c r="I22" s="61">
+        <f t="shared" si="6"/>
+        <v>9.5837777777777761E-3</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G23" s="63">
-        <f>F7/1000</f>
+      <c r="G23" s="58">
+        <f>H7</f>
         <v>2.4599999999999999E-3</v>
       </c>
-      <c r="H23" s="64">
-        <f>H7</f>
-        <v>1.4777777777777779E-3</v>
-      </c>
-      <c r="I23" s="67">
-        <f t="shared" si="5"/>
-        <v>1.802888888888889E-3</v>
+      <c r="H23" s="59">
+        <f>K7</f>
+        <v>8.8666666666666668E-3</v>
+      </c>
+      <c r="I23" s="61">
+        <f t="shared" si="6"/>
+        <v>1.0817333333333333E-2</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="63">
-        <f>F6/1000</f>
+      <c r="G24" s="58">
+        <f>H6</f>
         <v>3.3733333333333337E-3</v>
       </c>
-      <c r="H24" s="64">
-        <f>H6</f>
-        <v>2.1481481481481482E-3</v>
-      </c>
-      <c r="I24" s="67">
-        <f t="shared" si="5"/>
-        <v>2.6207407407407408E-3</v>
+      <c r="H24" s="59">
+        <f>K6</f>
+        <v>1.2888888888888889E-2</v>
+      </c>
+      <c r="I24" s="61">
+        <f t="shared" si="6"/>
+        <v>1.5724444444444444E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4004,7 +3586,303 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA94FB7-3482-4001-AD5B-72FC4DD2BF96}">
+  <dimension ref="D9:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="J9" s="63"/>
+      <c r="K9" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="63">
+        <v>2.8626</v>
+      </c>
+      <c r="L10" s="63">
+        <v>4.0372000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D11" s="58">
+        <v>0</v>
+      </c>
+      <c r="E11" s="61">
+        <v>2.4806666666666666E-3</v>
+      </c>
+      <c r="G11" s="58">
+        <v>0</v>
+      </c>
+      <c r="H11" s="61">
+        <v>2.9279999999999996E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D12" s="58">
+        <v>0</v>
+      </c>
+      <c r="E12" s="61">
+        <v>3.7413333333333335E-3</v>
+      </c>
+      <c r="G12" s="58">
+        <v>0</v>
+      </c>
+      <c r="H12" s="61">
+        <v>5.0426666666666667E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D13" s="58">
+        <v>7.3333333333333334E-4</v>
+      </c>
+      <c r="E13" s="61">
+        <v>3.8497777777777771E-3</v>
+      </c>
+      <c r="G13" s="58">
+        <v>3.9999999999999996E-4</v>
+      </c>
+      <c r="H13" s="61">
+        <v>5.0426666666666667E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D14" s="58">
+        <v>1.0366666666666666E-3</v>
+      </c>
+      <c r="E14" s="61">
+        <v>5.9508888888888901E-3</v>
+      </c>
+      <c r="G14" s="58">
+        <v>1.1300000000000001E-3</v>
+      </c>
+      <c r="H14" s="61">
+        <v>8.0926666666666664E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D15" s="58">
+        <v>1.5499999999999999E-3</v>
+      </c>
+      <c r="E15" s="61">
+        <v>6.3846666666666661E-3</v>
+      </c>
+      <c r="G15" s="58">
+        <v>1.7033333333333334E-3</v>
+      </c>
+      <c r="H15" s="61">
+        <v>9.5837777777777761E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D16" s="58">
+        <v>2.1366666666666669E-3</v>
+      </c>
+      <c r="E16" s="61">
+        <v>9.6922222222222201E-3</v>
+      </c>
+      <c r="G16" s="58">
+        <v>2.4599999999999999E-3</v>
+      </c>
+      <c r="H16" s="61">
+        <v>1.0817333333333333E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D17" s="58">
+        <v>3.0499999999999998E-3</v>
+      </c>
+      <c r="E17" s="61">
+        <v>1.3379333333333333E-2</v>
+      </c>
+      <c r="G17" s="58">
+        <v>3.3733333333333337E-3</v>
+      </c>
+      <c r="H17" s="61">
+        <v>1.5724444444444444E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D23" s="64">
+        <f>D11</f>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f>D23*$K$10</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="64">
+        <f>G11</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>G23*$L$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D24" s="64">
+        <f t="shared" ref="D24:D30" si="0">D12</f>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:E29" si="1">D24*$K$10</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="64">
+        <f t="shared" ref="G24:G29" si="2">G12</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H29" si="3">G24*$L$10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D25" s="64">
+        <f t="shared" si="0"/>
+        <v>7.3333333333333334E-4</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>2.09924E-3</v>
+      </c>
+      <c r="G25" s="64">
+        <f t="shared" si="2"/>
+        <v>3.9999999999999996E-4</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>1.61488E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D26" s="64">
+        <f t="shared" si="0"/>
+        <v>1.0366666666666666E-3</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>2.967562E-3</v>
+      </c>
+      <c r="G26" s="64">
+        <f t="shared" si="2"/>
+        <v>1.1300000000000001E-3</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>4.5620360000000011E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D27" s="64">
+        <f t="shared" si="0"/>
+        <v>1.5499999999999999E-3</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>4.4370299999999998E-3</v>
+      </c>
+      <c r="G27" s="64">
+        <f t="shared" si="2"/>
+        <v>1.7033333333333334E-3</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>6.8766973333333342E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D28" s="64">
+        <f t="shared" si="0"/>
+        <v>2.1366666666666669E-3</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>6.1164220000000007E-3</v>
+      </c>
+      <c r="G28" s="64">
+        <f t="shared" si="2"/>
+        <v>2.4599999999999999E-3</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>9.931512E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D29" s="64">
+        <f t="shared" si="0"/>
+        <v>3.0499999999999998E-3</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>8.7309299999999996E-3</v>
+      </c>
+      <c r="G29" s="64">
+        <f t="shared" si="2"/>
+        <v>3.3733333333333337E-3</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>1.3618821333333336E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D30" s="64"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>